--- a/outputs-r202/g__UBA1066.xlsx
+++ b/outputs-r202/g__UBA1066.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE9"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,6 +590,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -689,6 +694,11 @@
           <t>s__UBA1066 sp900314565</t>
         </is>
       </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>s__UBA1066 sp900314565</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -788,6 +798,11 @@
           <t>s__UBA1066 sp900315305</t>
         </is>
       </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>s__UBA1066 sp900315305</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -887,6 +902,11 @@
           <t>s__UBA1066 sp900319795</t>
         </is>
       </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>s__UBA1066 sp900319795(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -986,6 +1006,11 @@
           <t>s__UBA1066 sp900317515</t>
         </is>
       </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>s__UBA1066 sp900317515(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1085,6 +1110,11 @@
           <t>s__UBA1066 sp900315305</t>
         </is>
       </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>s__UBA1066 sp900315305</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1184,6 +1214,11 @@
           <t>s__UBA1066 sp900320575</t>
         </is>
       </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>s__UBA1066 sp900320575</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1283,6 +1318,11 @@
           <t>s__UBA1066 sp900320615</t>
         </is>
       </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>s__UBA1066 sp900320615</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1378,6 +1418,11 @@
         <v>0.9695388904692442</v>
       </c>
       <c r="AE9" t="inlineStr">
+        <is>
+          <t>s__UBA1066 sp900315305</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
         <is>
           <t>s__UBA1066 sp900315305</t>
         </is>
